--- a/(230911) open cv_TiniPingPing/요구사항정의서.xlsx
+++ b/(230911) open cv_TiniPingPing/요구사항정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDP-26-\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDP-26-\Documents\GitHub\AI_BigData_project\(230911) open cv_TiniPingPing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5FDB8-673C-4289-841C-94A71D7668CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2CBDF0-EC63-446E-82E7-C8EFA9830018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>대분류</t>
   </si>
@@ -112,10 +112,6 @@
   </si>
   <si>
     <t>핑핑이 이름별 라벨링 진행</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>randomForest Classifeir 모델 구축</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -263,10 +259,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ToysRUs 방문. 실제 사진 촬영</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>우선순위</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -276,6 +268,18 @@
   </si>
   <si>
     <t>2023. 09. 11.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomForest Classifier 모델 구축</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toys R Us 방문. 실물 사진 촬영</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김근태 김찬수 박선경 박소원</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -480,56 +484,59 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -774,36 +781,36 @@
     <col min="10" max="10" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38">
-      <c r="A1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+    <row r="1" spans="1:7" ht="48" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="17">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="28" t="s">
-        <v>61</v>
+      <c r="G2" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17">
-      <c r="A3" s="9"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
@@ -813,7 +820,9 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="4" customHeight="1">
       <c r="A4" s="11"/>
@@ -825,59 +834,59 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>26</v>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="96" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="D6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="22">
         <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>45</v>
+      <c r="G6" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="10" t="s">
@@ -886,10 +895,10 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -905,74 +914,74 @@
         <v>5</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="18"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>55</v>
+      <c r="F9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>47</v>
+      <c r="D10" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1">
       <c r="A11" s="18"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>27</v>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="10">
         <v>2</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1">
       <c r="A12" s="18"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>50</v>
+      <c r="D12" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="10">
         <v>2</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1">
       <c r="A13" s="18"/>
@@ -980,67 +989,67 @@
         <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1">
       <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E14" s="10">
         <v>3</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="27"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10">
         <v>4</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>56</v>
+      <c r="G15" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="10">
         <v>4</v>
@@ -1049,13 +1058,13 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="10">
         <v>4</v>
@@ -1064,15 +1073,15 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>40</v>
+      <c r="A18" s="25"/>
+      <c r="B18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="10">
         <v>4</v>
@@ -1081,11 +1090,11 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="19"/>
       <c r="D19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="10">
         <v>4</v>
@@ -1095,16 +1104,16 @@
     </row>
     <row r="20" spans="1:9" ht="22.5" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10">
         <v>5</v>
@@ -1113,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
@@ -1166,27 +1175,27 @@
     <row r="38" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A19"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="F9:F14"/>
     <mergeCell ref="F15:F19"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="G9:G14"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>